--- a/simulations/cleaned_inclusion_exclusion/Moran_2021 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Moran_2021 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>383</v>
       </c>
       <c r="C2">
-        <v>1454</v>
+        <v>1553</v>
       </c>
       <c r="D2">
-        <v>918.5</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>1330</v>
       </c>
       <c r="C3">
-        <v>604</v>
+        <v>1755</v>
       </c>
       <c r="D3">
-        <v>967</v>
+        <v>1542.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>3641</v>
       </c>
       <c r="C4">
-        <v>3807</v>
+        <v>3851</v>
       </c>
       <c r="D4">
-        <v>3724</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>4163</v>
       </c>
       <c r="C5">
-        <v>4329</v>
+        <v>4258</v>
       </c>
       <c r="D5">
-        <v>4246</v>
+        <v>4210.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>3100</v>
       </c>
       <c r="C6">
-        <v>2937</v>
+        <v>3197</v>
       </c>
       <c r="D6">
-        <v>3018.5</v>
+        <v>3148.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>1577</v>
       </c>
       <c r="C7">
-        <v>807</v>
+        <v>1342</v>
       </c>
       <c r="D7">
-        <v>1192</v>
+        <v>1459.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>1942</v>
       </c>
       <c r="C8">
-        <v>1071</v>
+        <v>1876</v>
       </c>
       <c r="D8">
-        <v>1506.5</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>1501</v>
       </c>
       <c r="C9">
-        <v>868</v>
+        <v>426</v>
       </c>
       <c r="D9">
-        <v>1184.5</v>
+        <v>963.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>1572</v>
       </c>
       <c r="C10">
-        <v>844</v>
+        <v>1331</v>
       </c>
       <c r="D10">
-        <v>1208</v>
+        <v>1451.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>2948</v>
       </c>
       <c r="C11">
-        <v>2623</v>
+        <v>3105</v>
       </c>
       <c r="D11">
-        <v>2785.5</v>
+        <v>3026.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>2966</v>
       </c>
       <c r="C12">
-        <v>2649</v>
+        <v>2798</v>
       </c>
       <c r="D12">
-        <v>2807.5</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>219</v>
       </c>
       <c r="C13">
-        <v>1512</v>
+        <v>639</v>
       </c>
       <c r="D13">
-        <v>865.5</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>1078</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>942</v>
       </c>
       <c r="D14">
-        <v>542</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>3455</v>
       </c>
       <c r="C15">
-        <v>3360</v>
+        <v>3377</v>
       </c>
       <c r="D15">
-        <v>3407.5</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>1096</v>
       </c>
       <c r="C16">
-        <v>167</v>
+        <v>1045</v>
       </c>
       <c r="D16">
-        <v>631.5</v>
+        <v>1070.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,10 +624,10 @@
         <v>1570</v>
       </c>
       <c r="C17">
-        <v>842</v>
+        <v>1329</v>
       </c>
       <c r="D17">
-        <v>1206</v>
+        <v>1449.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,10 +638,10 @@
         <v>1305</v>
       </c>
       <c r="C18">
-        <v>1136</v>
+        <v>1672</v>
       </c>
       <c r="D18">
-        <v>1220.5</v>
+        <v>1488.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,10 +652,10 @@
         <v>1768</v>
       </c>
       <c r="C19">
-        <v>1631</v>
+        <v>1928</v>
       </c>
       <c r="D19">
-        <v>1699.5</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,10 +666,10 @@
         <v>3578</v>
       </c>
       <c r="C20">
-        <v>3705</v>
+        <v>3838</v>
       </c>
       <c r="D20">
-        <v>3641.5</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,10 +680,10 @@
         <v>1016</v>
       </c>
       <c r="C21">
-        <v>138</v>
+        <v>1022</v>
       </c>
       <c r="D21">
-        <v>577</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,10 +694,10 @@
         <v>455</v>
       </c>
       <c r="C22">
-        <v>1516</v>
+        <v>1631</v>
       </c>
       <c r="D22">
-        <v>985.5</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,10 +708,10 @@
         <v>2475</v>
       </c>
       <c r="C23">
-        <v>2522</v>
+        <v>2432</v>
       </c>
       <c r="D23">
-        <v>2498.5</v>
+        <v>2453.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,10 +722,10 @@
         <v>888</v>
       </c>
       <c r="C24">
-        <v>358</v>
+        <v>966</v>
       </c>
       <c r="D24">
-        <v>623</v>
+        <v>927</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,10 +736,10 @@
         <v>3047</v>
       </c>
       <c r="C25">
-        <v>3035</v>
+        <v>3241</v>
       </c>
       <c r="D25">
-        <v>3041</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,10 +750,10 @@
         <v>4440</v>
       </c>
       <c r="C26">
-        <v>4525</v>
+        <v>4542</v>
       </c>
       <c r="D26">
-        <v>4482.5</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,10 +764,10 @@
         <v>3430</v>
       </c>
       <c r="C27">
-        <v>3463</v>
+        <v>3608</v>
       </c>
       <c r="D27">
-        <v>3446.5</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,10 +778,10 @@
         <v>1445</v>
       </c>
       <c r="C28">
-        <v>752</v>
+        <v>1355</v>
       </c>
       <c r="D28">
-        <v>1098.5</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,10 +792,10 @@
         <v>1995</v>
       </c>
       <c r="C29">
-        <v>1795</v>
+        <v>2037</v>
       </c>
       <c r="D29">
-        <v>1895</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,10 +806,10 @@
         <v>3704</v>
       </c>
       <c r="C30">
-        <v>3552</v>
+        <v>3695</v>
       </c>
       <c r="D30">
-        <v>3628</v>
+        <v>3699.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,10 +820,10 @@
         <v>433</v>
       </c>
       <c r="C31">
-        <v>1494</v>
+        <v>1619</v>
       </c>
       <c r="D31">
-        <v>963.5</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,10 +834,10 @@
         <v>1321</v>
       </c>
       <c r="C32">
-        <v>1218</v>
+        <v>1643</v>
       </c>
       <c r="D32">
-        <v>1269.5</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,10 +848,10 @@
         <v>1478</v>
       </c>
       <c r="C33">
-        <v>1227</v>
+        <v>410</v>
       </c>
       <c r="D33">
-        <v>1352.5</v>
+        <v>944</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,10 +862,10 @@
         <v>866</v>
       </c>
       <c r="C34">
-        <v>384</v>
+        <v>889</v>
       </c>
       <c r="D34">
-        <v>625</v>
+        <v>877.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,10 +876,10 @@
         <v>1271</v>
       </c>
       <c r="C35">
-        <v>530</v>
+        <v>1750</v>
       </c>
       <c r="D35">
-        <v>900.5</v>
+        <v>1510.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,10 +890,10 @@
         <v>3932</v>
       </c>
       <c r="C36">
-        <v>3849</v>
+        <v>3640</v>
       </c>
       <c r="D36">
-        <v>3890.5</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,10 +904,10 @@
         <v>1369</v>
       </c>
       <c r="C37">
-        <v>1194</v>
+        <v>1706</v>
       </c>
       <c r="D37">
-        <v>1281.5</v>
+        <v>1537.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,10 +918,10 @@
         <v>1513</v>
       </c>
       <c r="C38">
-        <v>797</v>
+        <v>1427</v>
       </c>
       <c r="D38">
-        <v>1155</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,10 +932,10 @@
         <v>791</v>
       </c>
       <c r="C39">
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="D39">
-        <v>595.5</v>
+        <v>447.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,10 +946,10 @@
         <v>946</v>
       </c>
       <c r="C40">
-        <v>560</v>
+        <v>1181</v>
       </c>
       <c r="D40">
-        <v>753</v>
+        <v>1063.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,10 +960,10 @@
         <v>3401</v>
       </c>
       <c r="C41">
-        <v>3429</v>
+        <v>3435</v>
       </c>
       <c r="D41">
-        <v>3415</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,10 +974,10 @@
         <v>249</v>
       </c>
       <c r="C42">
-        <v>1591</v>
+        <v>355</v>
       </c>
       <c r="D42">
-        <v>920</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,10 +988,10 @@
         <v>2226</v>
       </c>
       <c r="C43">
-        <v>2672</v>
+        <v>2521</v>
       </c>
       <c r="D43">
-        <v>2449</v>
+        <v>2373.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,10 +1002,10 @@
         <v>1017</v>
       </c>
       <c r="C44">
-        <v>145</v>
+        <v>1023</v>
       </c>
       <c r="D44">
-        <v>581</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,10 +1016,10 @@
         <v>515</v>
       </c>
       <c r="C45">
-        <v>1264</v>
+        <v>754</v>
       </c>
       <c r="D45">
-        <v>889.5</v>
+        <v>634.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,10 +1030,10 @@
         <v>600</v>
       </c>
       <c r="C46">
-        <v>1307</v>
+        <v>794</v>
       </c>
       <c r="D46">
-        <v>953.5</v>
+        <v>697</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,10 +1044,10 @@
         <v>1269</v>
       </c>
       <c r="C47">
-        <v>554</v>
+        <v>1200</v>
       </c>
       <c r="D47">
-        <v>911.5</v>
+        <v>1234.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,10 +1058,10 @@
         <v>152</v>
       </c>
       <c r="C48">
-        <v>1848</v>
+        <v>611</v>
       </c>
       <c r="D48">
-        <v>1000</v>
+        <v>381.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,10 +1072,10 @@
         <v>5125</v>
       </c>
       <c r="C49">
-        <v>5122</v>
+        <v>5135</v>
       </c>
       <c r="D49">
-        <v>5123.5</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,10 +1086,10 @@
         <v>4527</v>
       </c>
       <c r="C50">
-        <v>4627</v>
+        <v>4518</v>
       </c>
       <c r="D50">
-        <v>4577</v>
+        <v>4522.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,10 +1100,10 @@
         <v>1550</v>
       </c>
       <c r="C51">
-        <v>747</v>
+        <v>1373</v>
       </c>
       <c r="D51">
-        <v>1148.5</v>
+        <v>1461.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,10 +1114,10 @@
         <v>2214</v>
       </c>
       <c r="C52">
-        <v>2232</v>
+        <v>2322</v>
       </c>
       <c r="D52">
-        <v>2223</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,10 +1128,10 @@
         <v>661</v>
       </c>
       <c r="C53">
-        <v>2270</v>
+        <v>2356</v>
       </c>
       <c r="D53">
-        <v>1465.5</v>
+        <v>1508.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,10 +1142,10 @@
         <v>2731</v>
       </c>
       <c r="C54">
-        <v>3073</v>
+        <v>2962</v>
       </c>
       <c r="D54">
-        <v>2902</v>
+        <v>2846.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,10 +1156,10 @@
         <v>1845</v>
       </c>
       <c r="C55">
-        <v>938</v>
+        <v>2047</v>
       </c>
       <c r="D55">
-        <v>1391.5</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,10 +1170,10 @@
         <v>113</v>
       </c>
       <c r="C56">
-        <v>1860</v>
+        <v>601</v>
       </c>
       <c r="D56">
-        <v>986.5</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,10 +1184,10 @@
         <v>516</v>
       </c>
       <c r="C57">
-        <v>1265</v>
+        <v>755</v>
       </c>
       <c r="D57">
-        <v>890.5</v>
+        <v>635.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,10 +1198,10 @@
         <v>2846</v>
       </c>
       <c r="C58">
-        <v>2418</v>
+        <v>2906</v>
       </c>
       <c r="D58">
-        <v>2632</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,10 +1212,10 @@
         <v>471</v>
       </c>
       <c r="C59">
-        <v>1544</v>
+        <v>1694</v>
       </c>
       <c r="D59">
-        <v>1007.5</v>
+        <v>1082.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,10 +1226,10 @@
         <v>3135</v>
       </c>
       <c r="C60">
-        <v>2728</v>
+        <v>2480</v>
       </c>
       <c r="D60">
-        <v>2931.5</v>
+        <v>2807.5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,10 +1240,10 @@
         <v>1716</v>
       </c>
       <c r="C61">
-        <v>1601</v>
+        <v>1654</v>
       </c>
       <c r="D61">
-        <v>1658.5</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1254,10 +1254,10 @@
         <v>2015</v>
       </c>
       <c r="C62">
-        <v>1823</v>
+        <v>2075</v>
       </c>
       <c r="D62">
-        <v>1919</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1268,10 +1268,10 @@
         <v>156</v>
       </c>
       <c r="C63">
-        <v>1358</v>
+        <v>660</v>
       </c>
       <c r="D63">
-        <v>757</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1279,10 +1279,10 @@
         <v>3600</v>
       </c>
       <c r="C64">
-        <v>2818</v>
+        <v>566</v>
       </c>
       <c r="D64">
-        <v>2818</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1293,10 +1293,10 @@
         <v>1100</v>
       </c>
       <c r="C65">
-        <v>240</v>
+        <v>1011</v>
       </c>
       <c r="D65">
-        <v>670</v>
+        <v>1055.5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1307,10 +1307,10 @@
         <v>4974</v>
       </c>
       <c r="C66">
-        <v>4980</v>
+        <v>4976</v>
       </c>
       <c r="D66">
-        <v>4977</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1321,10 +1321,10 @@
         <v>683</v>
       </c>
       <c r="C67">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="D67">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1335,10 +1335,10 @@
         <v>538</v>
       </c>
       <c r="C68">
-        <v>1735</v>
+        <v>802</v>
       </c>
       <c r="D68">
-        <v>1136.5</v>
+        <v>670</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1349,10 +1349,10 @@
         <v>2705</v>
       </c>
       <c r="C69">
-        <v>2162</v>
+        <v>861</v>
       </c>
       <c r="D69">
-        <v>2433.5</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1363,10 +1363,10 @@
         <v>2449</v>
       </c>
       <c r="C70">
-        <v>2377</v>
+        <v>2585</v>
       </c>
       <c r="D70">
-        <v>2413</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1377,10 +1377,10 @@
         <v>3183</v>
       </c>
       <c r="C71">
-        <v>3009</v>
+        <v>3293</v>
       </c>
       <c r="D71">
-        <v>3096</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1391,10 +1391,10 @@
         <v>1657</v>
       </c>
       <c r="C72">
-        <v>924</v>
+        <v>1315</v>
       </c>
       <c r="D72">
-        <v>1290.5</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1405,10 +1405,10 @@
         <v>1421</v>
       </c>
       <c r="C73">
-        <v>1047</v>
+        <v>1784</v>
       </c>
       <c r="D73">
-        <v>1234</v>
+        <v>1602.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1419,10 +1419,10 @@
         <v>29</v>
       </c>
       <c r="C74">
-        <v>1388</v>
+        <v>555</v>
       </c>
       <c r="D74">
-        <v>708.5</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1433,10 +1433,10 @@
         <v>795</v>
       </c>
       <c r="C75">
-        <v>398</v>
+        <v>102</v>
       </c>
       <c r="D75">
-        <v>596.5</v>
+        <v>448.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1447,10 +1447,10 @@
         <v>158</v>
       </c>
       <c r="C76">
-        <v>1348</v>
+        <v>663</v>
       </c>
       <c r="D76">
-        <v>753</v>
+        <v>410.5</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1461,10 +1461,10 @@
         <v>2042</v>
       </c>
       <c r="C77">
-        <v>1828</v>
+        <v>2087</v>
       </c>
       <c r="D77">
-        <v>1935</v>
+        <v>2064.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1475,10 +1475,10 @@
         <v>465</v>
       </c>
       <c r="C78">
-        <v>1504</v>
+        <v>1613</v>
       </c>
       <c r="D78">
-        <v>984.5</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1489,10 +1489,10 @@
         <v>1563</v>
       </c>
       <c r="C79">
-        <v>733</v>
+        <v>1762</v>
       </c>
       <c r="D79">
-        <v>1148</v>
+        <v>1662.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1503,10 +1503,10 @@
         <v>107</v>
       </c>
       <c r="C80">
-        <v>1375</v>
+        <v>593</v>
       </c>
       <c r="D80">
-        <v>741</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1517,10 +1517,10 @@
         <v>567</v>
       </c>
       <c r="C81">
-        <v>1292</v>
+        <v>777</v>
       </c>
       <c r="D81">
-        <v>929.5</v>
+        <v>672</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1531,10 +1531,10 @@
         <v>1997</v>
       </c>
       <c r="C82">
-        <v>1798</v>
+        <v>2043</v>
       </c>
       <c r="D82">
-        <v>1897.5</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1545,10 +1545,10 @@
         <v>2252</v>
       </c>
       <c r="C83">
+        <v>2364</v>
+      </c>
+      <c r="D83">
         <v>2308</v>
-      </c>
-      <c r="D83">
-        <v>2280</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1559,10 +1559,10 @@
         <v>3580</v>
       </c>
       <c r="C84">
-        <v>3707</v>
+        <v>3840</v>
       </c>
       <c r="D84">
-        <v>3643.5</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1573,10 +1573,10 @@
         <v>849</v>
       </c>
       <c r="C85">
-        <v>374</v>
+        <v>87</v>
       </c>
       <c r="D85">
-        <v>611.5</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1587,10 +1587,10 @@
         <v>2145</v>
       </c>
       <c r="C86">
-        <v>2196</v>
+        <v>2225</v>
       </c>
       <c r="D86">
-        <v>2170.5</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1601,10 +1601,10 @@
         <v>4227</v>
       </c>
       <c r="C87">
-        <v>4289</v>
+        <v>4190</v>
       </c>
       <c r="D87">
-        <v>4258</v>
+        <v>4208.5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1615,10 +1615,10 @@
         <v>2990</v>
       </c>
       <c r="C88">
-        <v>2763</v>
+        <v>2852</v>
       </c>
       <c r="D88">
-        <v>2876.5</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1629,10 +1629,10 @@
         <v>545</v>
       </c>
       <c r="C89">
-        <v>1281</v>
+        <v>784</v>
       </c>
       <c r="D89">
-        <v>913</v>
+        <v>664.5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1643,10 +1643,10 @@
         <v>1125</v>
       </c>
       <c r="C90">
-        <v>273</v>
+        <v>1104</v>
       </c>
       <c r="D90">
-        <v>699</v>
+        <v>1114.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1657,10 +1657,10 @@
         <v>191</v>
       </c>
       <c r="C91">
-        <v>1401</v>
+        <v>705</v>
       </c>
       <c r="D91">
-        <v>796</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1671,10 +1671,10 @@
         <v>2658</v>
       </c>
       <c r="C92">
-        <v>2750</v>
+        <v>2691</v>
       </c>
       <c r="D92">
-        <v>2704</v>
+        <v>2674.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1685,10 +1685,10 @@
         <v>2376</v>
       </c>
       <c r="C93">
-        <v>2188</v>
+        <v>2439</v>
       </c>
       <c r="D93">
-        <v>2282</v>
+        <v>2407.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1699,10 +1699,10 @@
         <v>1239</v>
       </c>
       <c r="C94">
-        <v>72</v>
+        <v>1701</v>
       </c>
       <c r="D94">
-        <v>655.5</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1713,10 +1713,10 @@
         <v>3007</v>
       </c>
       <c r="C95">
-        <v>2810</v>
+        <v>3125</v>
       </c>
       <c r="D95">
-        <v>2908.5</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1727,10 +1727,10 @@
         <v>2918</v>
       </c>
       <c r="C96">
-        <v>437</v>
+        <v>3101</v>
       </c>
       <c r="D96">
-        <v>1677.5</v>
+        <v>3009.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1741,10 +1741,10 @@
         <v>3885</v>
       </c>
       <c r="C97">
-        <v>3602</v>
+        <v>3474</v>
       </c>
       <c r="D97">
-        <v>3743.5</v>
+        <v>3679.5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1755,10 +1755,10 @@
         <v>1569</v>
       </c>
       <c r="C98">
-        <v>860</v>
+        <v>1768</v>
       </c>
       <c r="D98">
-        <v>1214.5</v>
+        <v>1668.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1769,10 +1769,10 @@
         <v>1021</v>
       </c>
       <c r="C99">
-        <v>56</v>
+        <v>1008</v>
       </c>
       <c r="D99">
-        <v>538.5</v>
+        <v>1014.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1783,10 +1783,10 @@
         <v>1639</v>
       </c>
       <c r="C100">
-        <v>1119</v>
+        <v>1440</v>
       </c>
       <c r="D100">
-        <v>1379</v>
+        <v>1539.5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1797,10 +1797,10 @@
         <v>1643</v>
       </c>
       <c r="C101">
-        <v>1128</v>
+        <v>1473</v>
       </c>
       <c r="D101">
-        <v>1385.5</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1811,10 +1811,10 @@
         <v>1535</v>
       </c>
       <c r="C102">
-        <v>684</v>
+        <v>1711</v>
       </c>
       <c r="D102">
-        <v>1109.5</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1825,10 +1825,10 @@
         <v>2793</v>
       </c>
       <c r="C103">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="D103">
-        <v>2746.5</v>
+        <v>2846.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1839,10 +1839,10 @@
         <v>1867</v>
       </c>
       <c r="C104">
-        <v>1183</v>
+        <v>1800</v>
       </c>
       <c r="D104">
-        <v>1525</v>
+        <v>1833.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1853,10 +1853,10 @@
         <v>3563</v>
       </c>
       <c r="C105">
-        <v>3870</v>
+        <v>3919</v>
       </c>
       <c r="D105">
-        <v>3716.5</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1867,10 +1867,10 @@
         <v>2446</v>
       </c>
       <c r="C106">
-        <v>2300</v>
+        <v>2562</v>
       </c>
       <c r="D106">
-        <v>2373</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1881,10 +1881,10 @@
         <v>322</v>
       </c>
       <c r="C107">
-        <v>2107</v>
+        <v>878</v>
       </c>
       <c r="D107">
-        <v>1214.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1895,10 +1895,10 @@
         <v>4507</v>
       </c>
       <c r="C108">
-        <v>4533</v>
+        <v>4567</v>
       </c>
       <c r="D108">
-        <v>4520</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1909,10 +1909,10 @@
         <v>1778</v>
       </c>
       <c r="C109">
-        <v>1638</v>
+        <v>1933</v>
       </c>
       <c r="D109">
-        <v>1708</v>
+        <v>1855.5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1923,10 +1923,10 @@
         <v>2110</v>
       </c>
       <c r="C110">
-        <v>1999</v>
+        <v>2156</v>
       </c>
       <c r="D110">
-        <v>2054.5</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1937,10 +1937,10 @@
         <v>2721</v>
       </c>
       <c r="C111">
-        <v>2706</v>
+        <v>2897</v>
       </c>
       <c r="D111">
-        <v>2713.5</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1951,10 +1951,10 @@
         <v>3009</v>
       </c>
       <c r="C112">
-        <v>2822</v>
+        <v>3134</v>
       </c>
       <c r="D112">
-        <v>2915.5</v>
+        <v>3071.5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1965,7 +1965,7 @@
         <v>1890.909090909091</v>
       </c>
       <c r="C113">
-        <v>1861.873873873874</v>
+        <v>1991.801801801802</v>
       </c>
     </row>
   </sheetData>
